--- a/odds/Philly Extra Special 2025 Betting Odds.xlsx
+++ b/odds/Philly Extra Special 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Record</t>
   </si>
@@ -33,18 +33,18 @@
     <t>Leafy Water</t>
   </si>
   <si>
+    <t>Dr@ft King$</t>
+  </si>
+  <si>
     <t>Pickens Brown Hubbard @ Mahomes</t>
   </si>
   <si>
-    <t>Dr@ft King$</t>
+    <t>Steenage Mutant Ninja Turtles</t>
   </si>
   <si>
     <t>The Real Kevin Nichols</t>
   </si>
   <si>
-    <t>Steenage Mutant Ninja Turtles</t>
-  </si>
-  <si>
     <t>Matthew Dorchak</t>
   </si>
   <si>
@@ -66,12 +66,12 @@
     <t>7-4</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -81,97 +81,103 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>89.7%</t>
-  </si>
-  <si>
-    <t>87.9%</t>
-  </si>
-  <si>
-    <t>70.9%</t>
-  </si>
-  <si>
-    <t>21.2%</t>
-  </si>
-  <si>
-    <t>17.6%</t>
-  </si>
-  <si>
-    <t>8.6%</t>
-  </si>
-  <si>
-    <t>4.1%</t>
+    <t>99.8%</t>
+  </si>
+  <si>
+    <t>90.5%</t>
+  </si>
+  <si>
+    <t>88.2%</t>
+  </si>
+  <si>
+    <t>72.2%</t>
+  </si>
+  <si>
+    <t>22.7%</t>
+  </si>
+  <si>
+    <t>14.4%</t>
+  </si>
+  <si>
+    <t>8.5%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-871</t>
-  </si>
-  <si>
-    <t>-726</t>
-  </si>
-  <si>
-    <t>-244</t>
-  </si>
-  <si>
-    <t>+372</t>
-  </si>
-  <si>
-    <t>+468</t>
-  </si>
-  <si>
-    <t>+1063</t>
-  </si>
-  <si>
-    <t>+2339</t>
+    <t>-49900</t>
+  </si>
+  <si>
+    <t>-953</t>
+  </si>
+  <si>
+    <t>-747</t>
+  </si>
+  <si>
+    <t>-260</t>
+  </si>
+  <si>
+    <t>+341</t>
+  </si>
+  <si>
+    <t>+594</t>
+  </si>
+  <si>
+    <t>+1076</t>
+  </si>
+  <si>
+    <t>+2603</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>57.8%</t>
-  </si>
-  <si>
-    <t>35.4%</t>
-  </si>
-  <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
+    <t>58.4%</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>-137</t>
-  </si>
-  <si>
-    <t>+182</t>
-  </si>
-  <si>
-    <t>+1513</t>
-  </si>
-  <si>
-    <t>+16567</t>
+    <t>-140</t>
+  </si>
+  <si>
+    <t>+181</t>
+  </si>
+  <si>
+    <t>+1686</t>
+  </si>
+  <si>
+    <t>+24900</t>
   </si>
   <si>
     <t>+∞</t>
   </si>
   <si>
-    <t>41.2%</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>15.8%</t>
-  </si>
-  <si>
-    <t>10.3%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
+    <t>41.1%</t>
+  </si>
+  <si>
+    <t>31.8%</t>
+  </si>
+  <si>
+    <t>14.2%</t>
+  </si>
+  <si>
+    <t>12.2%</t>
+  </si>
+  <si>
+    <t>0.5%</t>
   </si>
   <si>
     <t>0.2%</t>
@@ -180,16 +186,16 @@
     <t>+143</t>
   </si>
   <si>
-    <t>+216</t>
-  </si>
-  <si>
-    <t>+533</t>
-  </si>
-  <si>
-    <t>+871</t>
-  </si>
-  <si>
-    <t>+11011</t>
+    <t>+214</t>
+  </si>
+  <si>
+    <t>+604</t>
+  </si>
+  <si>
+    <t>+720</t>
+  </si>
+  <si>
+    <t>+19900</t>
   </si>
   <si>
     <t>+49900</t>
@@ -581,7 +587,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -589,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -620,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -634,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -645,13 +651,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -662,10 +668,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -676,10 +682,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -690,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -704,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -739,16 +745,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -759,38 +765,38 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -798,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -815,10 +821,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -829,10 +835,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -843,24 +849,24 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -871,10 +877,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -912,10 +918,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -926,38 +932,38 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -965,27 +971,27 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -996,52 +1002,52 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Philly Extra Special 2025 Betting Odds.xlsx
+++ b/odds/Philly Extra Special 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>Record</t>
   </si>
@@ -33,172 +33,151 @@
     <t>Leafy Water</t>
   </si>
   <si>
+    <t>Pickens Brown Hubbard @ Mahomes</t>
+  </si>
+  <si>
     <t>Dr@ft King$</t>
   </si>
   <si>
-    <t>Pickens Brown Hubbard @ Mahomes</t>
+    <t>Matthew Dorchak</t>
+  </si>
+  <si>
+    <t>The Real Kevin Nichols</t>
   </si>
   <si>
     <t>Steenage Mutant Ninja Turtles</t>
   </si>
   <si>
-    <t>The Real Kevin Nichols</t>
-  </si>
-  <si>
-    <t>Matthew Dorchak</t>
-  </si>
-  <si>
     <t>i just wasted $20</t>
   </si>
   <si>
+    <t>Matthew Golden's Goose</t>
+  </si>
+  <si>
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
     <t>yay football woo</t>
   </si>
   <si>
-    <t>Matthew Golden's Goose</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-3-1</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-6-1</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>90.5%</t>
-  </si>
-  <si>
-    <t>88.2%</t>
-  </si>
-  <si>
-    <t>72.2%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>14.4%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
-  </si>
-  <si>
-    <t>3.7%</t>
+    <t>91.2%</t>
+  </si>
+  <si>
+    <t>84.5%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
+  </si>
+  <si>
+    <t>24.0%</t>
+  </si>
+  <si>
+    <t>13.0%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-953</t>
-  </si>
-  <si>
-    <t>-747</t>
-  </si>
-  <si>
-    <t>-260</t>
-  </si>
-  <si>
-    <t>+341</t>
-  </si>
-  <si>
-    <t>+594</t>
-  </si>
-  <si>
-    <t>+1076</t>
-  </si>
-  <si>
-    <t>+2603</t>
+    <t>-1036</t>
+  </si>
+  <si>
+    <t>-545</t>
+  </si>
+  <si>
+    <t>-533</t>
+  </si>
+  <si>
+    <t>+317</t>
+  </si>
+  <si>
+    <t>+669</t>
+  </si>
+  <si>
+    <t>+3471</t>
+  </si>
+  <si>
+    <t>+33233</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>58.4%</t>
-  </si>
-  <si>
-    <t>35.6%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
+    <t>53.5%</t>
+  </si>
+  <si>
+    <t>25.4%</t>
+  </si>
+  <si>
+    <t>21.1%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>-140</t>
-  </si>
-  <si>
-    <t>+181</t>
-  </si>
-  <si>
-    <t>+1686</t>
-  </si>
-  <si>
-    <t>+24900</t>
+    <t>-115</t>
+  </si>
+  <si>
+    <t>+294</t>
+  </si>
+  <si>
+    <t>+374</t>
   </si>
   <si>
     <t>+∞</t>
   </si>
   <si>
-    <t>41.1%</t>
-  </si>
-  <si>
-    <t>31.8%</t>
-  </si>
-  <si>
-    <t>14.2%</t>
-  </si>
-  <si>
-    <t>12.2%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>+143</t>
-  </si>
-  <si>
-    <t>+214</t>
-  </si>
-  <si>
-    <t>+604</t>
-  </si>
-  <si>
-    <t>+720</t>
-  </si>
-  <si>
-    <t>+19900</t>
-  </si>
-  <si>
-    <t>+49900</t>
+    <t>56.3%</t>
+  </si>
+  <si>
+    <t>26.7%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>-129</t>
+  </si>
+  <si>
+    <t>+275</t>
+  </si>
+  <si>
+    <t>+585</t>
+  </si>
+  <si>
+    <t>+4067</t>
   </si>
 </sst>
 </file>
@@ -584,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -595,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -609,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -623,13 +602,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,7 +622,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -651,13 +630,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -665,13 +644,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -679,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -693,13 +672,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -707,13 +686,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -745,30 +724,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -776,69 +755,69 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -846,41 +825,41 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -915,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -929,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -943,13 +922,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -957,69 +936,69 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1027,27 +1006,27 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Philly Extra Special 2025 Betting Odds.xlsx
+++ b/odds/Philly Extra Special 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Record</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Matthew Dorchak</t>
+  </si>
+  <si>
     <t>Leafy Water</t>
   </si>
   <si>
@@ -39,145 +42,121 @@
     <t>Dr@ft King$</t>
   </si>
   <si>
-    <t>Matthew Dorchak</t>
-  </si>
-  <si>
     <t>The Real Kevin Nichols</t>
   </si>
   <si>
     <t>Steenage Mutant Ninja Turtles</t>
   </si>
   <si>
+    <t>Matthew Golden's Goose</t>
+  </si>
+  <si>
+    <t>Kevin Nichols The Third</t>
+  </si>
+  <si>
     <t>i just wasted $20</t>
   </si>
   <si>
-    <t>Matthew Golden's Goose</t>
-  </si>
-  <si>
-    <t>Kevin Nichols The Third</t>
-  </si>
-  <si>
     <t>yay football woo</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-3-1</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-6-1</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-3-1</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-7-1</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>91.2%</t>
-  </si>
-  <si>
-    <t>84.5%</t>
-  </si>
-  <si>
-    <t>84.2%</t>
-  </si>
-  <si>
-    <t>24.0%</t>
-  </si>
-  <si>
-    <t>13.0%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
+    <t>82.2%</t>
+  </si>
+  <si>
+    <t>60.0%</t>
+  </si>
+  <si>
+    <t>32.4%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-1036</t>
-  </si>
-  <si>
-    <t>-545</t>
-  </si>
-  <si>
-    <t>-533</t>
-  </si>
-  <si>
-    <t>+317</t>
-  </si>
-  <si>
-    <t>+669</t>
-  </si>
-  <si>
-    <t>+3471</t>
-  </si>
-  <si>
-    <t>+33233</t>
+    <t>-462</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>+209</t>
+  </si>
+  <si>
+    <t>+443</t>
+  </si>
+  <si>
+    <t>+1329</t>
+  </si>
+  <si>
+    <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>53.5%</t>
-  </si>
-  <si>
-    <t>25.4%</t>
-  </si>
-  <si>
-    <t>21.1%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-115</t>
-  </si>
-  <si>
-    <t>+294</t>
-  </si>
-  <si>
-    <t>+374</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>56.3%</t>
-  </si>
-  <si>
-    <t>26.7%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>-129</t>
-  </si>
-  <si>
-    <t>+275</t>
-  </si>
-  <si>
-    <t>+585</t>
-  </si>
-  <si>
-    <t>+4067</t>
+    <t>79.2%</t>
+  </si>
+  <si>
+    <t>20.8%</t>
+  </si>
+  <si>
+    <t>-381</t>
+  </si>
+  <si>
+    <t>+381</t>
+  </si>
+  <si>
+    <t>97.4%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-3746</t>
+  </si>
+  <si>
+    <t>+3900</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -563,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -577,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -591,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -608,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -616,13 +595,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -630,13 +609,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -644,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -664,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -678,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -686,13 +665,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -724,114 +703,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -839,27 +818,27 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -894,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -911,10 +890,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -925,94 +904,94 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1020,13 +999,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Philly Extra Special 2025 Betting Odds.xlsx
+++ b/odds/Philly Extra Special 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>Record</t>
   </si>
@@ -36,127 +36,64 @@
     <t>Leafy Water</t>
   </si>
   <si>
+    <t>The Real Kevin Nichols</t>
+  </si>
+  <si>
     <t>Pickens Brown Hubbard @ Mahomes</t>
   </si>
   <si>
     <t>Dr@ft King$</t>
   </si>
   <si>
-    <t>The Real Kevin Nichols</t>
-  </si>
-  <si>
     <t>Steenage Mutant Ninja Turtles</t>
   </si>
   <si>
+    <t>yay football woo</t>
+  </si>
+  <si>
     <t>Matthew Golden's Goose</t>
   </si>
   <si>
+    <t>i just wasted $20</t>
+  </si>
+  <si>
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>i just wasted $20</t>
-  </si>
-  <si>
-    <t>yay football woo</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-3-1</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-7-1</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>10-3-1</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>82.2%</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>32.4%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>7.0%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-462</t>
-  </si>
-  <si>
-    <t>-150</t>
-  </si>
-  <si>
-    <t>+209</t>
-  </si>
-  <si>
-    <t>+443</t>
-  </si>
-  <si>
-    <t>+1329</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>79.2%</t>
-  </si>
-  <si>
-    <t>20.8%</t>
-  </si>
-  <si>
-    <t>-381</t>
-  </si>
-  <si>
-    <t>+381</t>
-  </si>
-  <si>
-    <t>97.4%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-3746</t>
-  </si>
-  <si>
-    <t>+3900</t>
-  </si>
-  <si>
-    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -542,10 +479,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -556,10 +493,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -570,10 +507,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -584,10 +521,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -595,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -609,13 +546,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -623,13 +560,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -637,13 +574,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -651,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -665,13 +602,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -703,86 +640,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -790,27 +727,27 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -818,27 +755,27 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -870,142 +807,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Philly Extra Special 2025 Betting Odds.xlsx
+++ b/odds/Philly Extra Special 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t>Record</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>6-8</t>
-  </si>
-  <si>
-    <t>10-3-1</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
   </si>
   <si>
     <t>4-10</t>
@@ -479,10 +473,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -493,10 +487,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -507,10 +501,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -518,13 +512,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -535,10 +529,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -546,13 +540,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -560,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -577,10 +571,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -591,10 +585,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -643,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -660,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -674,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -688,10 +682,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -699,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -716,10 +710,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -730,10 +724,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -744,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -755,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -769,13 +763,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -810,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -827,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -841,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -855,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -866,13 +860,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -883,10 +877,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -897,10 +891,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -911,10 +905,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -922,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -936,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
